--- a/testreport_sxx.xlsx
+++ b/testreport_sxx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alg\Documents\dev\sandbox\testrepo-digitalproducts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A852A-F589-4D56-8B9B-3C3104FBC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278139AE-8889-45A5-9C34-88D65EC50284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60030" yWindow="1005" windowWidth="21600" windowHeight="11505" xr2:uid="{9EA52236-8D50-461F-83F7-34FA85F24B08}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>press button create user</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B14175D-FB9B-4E86-88AF-54613DE8CFA1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +510,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
